--- a/GameBoards.xlsx
+++ b/GameBoards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethhsu/Google Drive/Hsu Family/Kenneth Hsu/Projects/Colonizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AD8DB2-2EA9-6C42-98D6-C9C972BFE5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8586F57-664A-DE48-9568-B9430E3E1C68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="2600" windowWidth="28040" windowHeight="17440" xr2:uid="{ECD0B745-F889-C448-A747-C36281352244}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="35">
   <si>
     <t>Game</t>
   </si>
@@ -487,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F4AA2-A4EF-0047-9E07-AE4E15987399}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,6 +762,184 @@
         <v>31</v>
       </c>
     </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameBoards.xlsx
+++ b/GameBoards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethhsu/Google Drive/Hsu Family/Kenneth Hsu/Projects/Colonizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8586F57-664A-DE48-9568-B9430E3E1C68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8C99CB-B891-7448-A66A-6A4E42ECDD9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2600" windowWidth="28040" windowHeight="17440" xr2:uid="{ECD0B745-F889-C448-A747-C36281352244}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="33600" windowHeight="20500" xr2:uid="{ECD0B745-F889-C448-A747-C36281352244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="37">
   <si>
     <t>Game</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>sheep</t>
+  </si>
+  <si>
+    <t>﻿diceSetupHexOffset</t>
+  </si>
+  <si>
+    <t>﻿diceSetupClockwise</t>
   </si>
 </sst>
 </file>
@@ -487,15 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F4AA2-A4EF-0047-9E07-AE4E15987399}">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="30" max="30" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +593,14 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -672,8 +688,14 @@
       <c r="AC2" t="s">
         <v>29</v>
       </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -761,8 +783,14 @@
       <c r="AC3" t="s">
         <v>31</v>
       </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -850,8 +878,14 @@
       <c r="AC4" t="s">
         <v>34</v>
       </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -938,6 +972,202 @@
       </c>
       <c r="AC5" t="s">
         <v>32</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD7">
+        <v>-2</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GameBoards.xlsx
+++ b/GameBoards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethhsu/Google Drive/Hsu Family/Kenneth Hsu/Projects/Colonizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8C99CB-B891-7448-A66A-6A4E42ECDD9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB609C57-C289-0142-9486-338F23141FDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="33600" windowHeight="20500" xr2:uid="{ECD0B745-F889-C448-A747-C36281352244}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{ECD0B745-F889-C448-A747-C36281352244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>30</v>
       </c>
       <c r="AD7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>

--- a/GameBoards.xlsx
+++ b/GameBoards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethhsu/Google Drive/Hsu Family/Kenneth Hsu/Projects/Colonizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB609C57-C289-0142-9486-338F23141FDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085A69C-EAD9-D04C-A9C2-3D902C5C2FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{ECD0B745-F889-C448-A747-C36281352244}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/GameBoards.xlsx
+++ b/GameBoards.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethhsu/Google Drive/Hsu Family/Kenneth Hsu/Projects/Colonizer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qikechen/Documents/GitHub/Colonizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085A69C-EAD9-D04C-A9C2-3D902C5C2FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EA5417-18F1-604D-BA72-5644F10EB7D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{ECD0B745-F889-C448-A747-C36281352244}"/>
+    <workbookView xWindow="-6340" yWindow="-21100" windowWidth="22120" windowHeight="21100" xr2:uid="{ECD0B745-F889-C448-A747-C36281352244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="54">
   <si>
     <t>Game</t>
   </si>
@@ -136,6 +148,57 @@
   </si>
   <si>
     <t>﻿diceSetupClockwise</t>
+  </si>
+  <si>
+    <t>P1S1</t>
+  </si>
+  <si>
+    <t>P2S1</t>
+  </si>
+  <si>
+    <t>P3S1</t>
+  </si>
+  <si>
+    <t>P4S1</t>
+  </si>
+  <si>
+    <t>P4S2</t>
+  </si>
+  <si>
+    <t>P3S2</t>
+  </si>
+  <si>
+    <t>P2S2</t>
+  </si>
+  <si>
+    <t>P1S2</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>P1V1</t>
+  </si>
+  <si>
+    <t>P2V1</t>
+  </si>
+  <si>
+    <t>P3V1</t>
+  </si>
+  <si>
+    <t>P4V1</t>
+  </si>
+  <si>
+    <t>P4V2</t>
+  </si>
+  <si>
+    <t>P3V2</t>
+  </si>
+  <si>
+    <t>P2V2</t>
+  </si>
+  <si>
+    <t>P1V2</t>
   </si>
 </sst>
 </file>
@@ -194,6 +257,177 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Analysis"/>
+      <sheetName val="Players"/>
+      <sheetName val="Board"/>
+      <sheetName val="BuildingValue"/>
+      <sheetName val="References"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Hex</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="C3">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="C4">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>C</v>
+          </cell>
+          <cell r="C5">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>D</v>
+          </cell>
+          <cell r="C6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>E</v>
+          </cell>
+          <cell r="C7">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="C8">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>G</v>
+          </cell>
+          <cell r="C9">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>H</v>
+          </cell>
+          <cell r="C10">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>I</v>
+          </cell>
+          <cell r="C11">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>J</v>
+          </cell>
+          <cell r="C12">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>K</v>
+          </cell>
+          <cell r="C13">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="C14">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C15">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="C16">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="C17">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>P</v>
+          </cell>
+          <cell r="C18">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Q</v>
+          </cell>
+          <cell r="C19">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>R</v>
+          </cell>
+          <cell r="C20">
+            <v>11</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,10 +727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F4AA2-A4EF-0047-9E07-AE4E15987399}">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +742,7 @@
     <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +836,56 @@
       <c r="AE1" t="s">
         <v>36</v>
       </c>
+      <c r="AF1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -608,61 +893,61 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
         <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s">
         <v>31</v>
@@ -674,19 +959,19 @@
         <v>30</v>
       </c>
       <c r="Y2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -694,180 +979,228 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2">
+        <v>20</v>
+      </c>
+      <c r="AG2">
+        <v>9</v>
+      </c>
+      <c r="AH2">
+        <v>16</v>
+      </c>
+      <c r="AI2">
+        <v>14</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2">
+        <v>49</v>
+      </c>
+      <c r="AL2">
+        <v>24</v>
+      </c>
+      <c r="AM2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
         <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s">
         <v>33</v>
       </c>
       <c r="Y3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="s">
         <v>31</v>
       </c>
       <c r="AB3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3">
+        <v>22</v>
+      </c>
+      <c r="AG3">
+        <v>13</v>
+      </c>
+      <c r="AH3">
+        <v>15</v>
+      </c>
+      <c r="AI3">
+        <v>11</v>
+      </c>
+      <c r="AJ3">
+        <v>7</v>
+      </c>
+      <c r="AK3">
+        <v>17</v>
+      </c>
+      <c r="AL3">
+        <v>19</v>
+      </c>
+      <c r="AM3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AA4" t="s">
         <v>31</v>
@@ -876,102 +1209,126 @@
         <v>31</v>
       </c>
       <c r="AC4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4">
+        <v>13</v>
+      </c>
+      <c r="AG4">
+        <v>19</v>
+      </c>
+      <c r="AH4">
+        <v>16</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK4">
+        <v>8</v>
+      </c>
+      <c r="AL4">
+        <v>24</v>
+      </c>
+      <c r="AM4">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T5" t="s">
         <v>30</v>
       </c>
       <c r="U5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V5" t="s">
         <v>31</v>
       </c>
       <c r="W5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Z5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -979,8 +1336,32 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5">
+        <v>17</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK5">
+        <v>14</v>
+      </c>
+      <c r="AL5">
+        <v>20</v>
+      </c>
+      <c r="AM5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1072,10 +1453,34 @@
         <v>0</v>
       </c>
       <c r="AE6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>13</v>
+      </c>
+      <c r="AG6">
+        <v>24</v>
+      </c>
+      <c r="AH6">
+        <v>17</v>
+      </c>
+      <c r="AI6">
+        <v>5</v>
+      </c>
+      <c r="AJ6">
+        <v>46</v>
+      </c>
+      <c r="AK6">
+        <v>9</v>
+      </c>
+      <c r="AL6">
+        <v>22</v>
+      </c>
+      <c r="AM6">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1169,8 +1574,1225 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7">
+        <v>21</v>
+      </c>
+      <c r="AG7">
+        <v>9</v>
+      </c>
+      <c r="AH7">
+        <v>18</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
+      </c>
+      <c r="AJ7">
+        <v>23</v>
+      </c>
+      <c r="AK7">
+        <v>11</v>
+      </c>
+      <c r="AL7">
+        <v>6</v>
+      </c>
+      <c r="AM7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>15</v>
+      </c>
+      <c r="AG8">
+        <v>22</v>
+      </c>
+      <c r="AH8">
+        <v>24</v>
+      </c>
+      <c r="AI8">
+        <v>8</v>
+      </c>
+      <c r="AJ8">
+        <v>10</v>
+      </c>
+      <c r="AK8">
+        <v>5</v>
+      </c>
+      <c r="AL8">
+        <v>3</v>
+      </c>
+      <c r="AM8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>15</v>
+      </c>
+      <c r="AG9">
+        <v>18</v>
+      </c>
+      <c r="AH9">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9">
+        <v>24</v>
+      </c>
+      <c r="AL9">
+        <v>6</v>
+      </c>
+      <c r="AM9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD10">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>7</v>
+      </c>
+      <c r="AG10">
+        <v>17</v>
+      </c>
+      <c r="AH10">
+        <v>15</v>
+      </c>
+      <c r="AI10">
+        <v>9</v>
+      </c>
+      <c r="AJ10">
+        <v>23</v>
+      </c>
+      <c r="AK10">
+        <v>11</v>
+      </c>
+      <c r="AL10">
+        <v>3</v>
+      </c>
+      <c r="AM10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD11">
+        <v>4</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>5</v>
+      </c>
+      <c r="AG11">
+        <v>16</v>
+      </c>
+      <c r="AH11">
+        <v>12</v>
+      </c>
+      <c r="AI11">
+        <v>18</v>
+      </c>
+      <c r="AJ11">
+        <v>22</v>
+      </c>
+      <c r="AK11">
+        <v>49</v>
+      </c>
+      <c r="AL11">
+        <v>20</v>
+      </c>
+      <c r="AM11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>15</v>
+      </c>
+      <c r="AG12">
+        <v>8</v>
+      </c>
+      <c r="AH12">
+        <v>17</v>
+      </c>
+      <c r="AI12">
+        <v>4</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>12</v>
+      </c>
+      <c r="AL12">
+        <v>23</v>
+      </c>
+      <c r="AM12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" t="s">
+        <v>30</v>
+      </c>
+      <c r="X13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>9</v>
+      </c>
+      <c r="AG13">
+        <v>4</v>
+      </c>
+      <c r="AH13">
+        <v>18</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK13">
+        <v>22</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD14">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>21</v>
+      </c>
+      <c r="AG14">
+        <v>23</v>
+      </c>
+      <c r="AH14">
+        <v>14</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK14">
+        <v>22</v>
+      </c>
+      <c r="AL14">
+        <v>18</v>
+      </c>
+      <c r="AM14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD15">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>14</v>
+      </c>
+      <c r="AG15">
+        <v>21</v>
+      </c>
+      <c r="AH15">
+        <v>18</v>
+      </c>
+      <c r="AI15">
+        <v>10</v>
+      </c>
+      <c r="AJ15">
+        <v>12</v>
+      </c>
+      <c r="AK15">
+        <v>3</v>
+      </c>
+      <c r="AL15">
+        <v>31</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>17</v>
+      </c>
+      <c r="AG16">
+        <v>19</v>
+      </c>
+      <c r="AH16">
+        <v>8</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK16">
+        <v>13</v>
+      </c>
+      <c r="AL16">
+        <v>15</v>
+      </c>
+      <c r="AM16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17">
+        <v>4</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>18</v>
+      </c>
+      <c r="AG17">
+        <v>20</v>
+      </c>
+      <c r="AH17">
+        <v>11</v>
+      </c>
+      <c r="AI17">
+        <v>15</v>
+      </c>
+      <c r="AJ17">
+        <v>9</v>
+      </c>
+      <c r="AK17">
+        <v>5</v>
+      </c>
+      <c r="AL17">
+        <v>3</v>
+      </c>
+      <c r="AM17">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GameBoards.xlsx
+++ b/GameBoards.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethhsu/Google Drive/Hsu Family/Kenneth Hsu/Projects/Colonizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085A69C-EAD9-D04C-A9C2-3D902C5C2FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E7B1A-49DF-1547-9CD8-82347C12F808}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{ECD0B745-F889-C448-A747-C36281352244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,63 +30,6 @@
     <t>Game</t>
   </si>
   <si>
-    <t>Tile 1</t>
-  </si>
-  <si>
-    <t>Tile 2</t>
-  </si>
-  <si>
-    <t>Tile 3</t>
-  </si>
-  <si>
-    <t>Tile 4</t>
-  </si>
-  <si>
-    <t>Tile 5</t>
-  </si>
-  <si>
-    <t>Tile 6</t>
-  </si>
-  <si>
-    <t>Tile 7</t>
-  </si>
-  <si>
-    <t>Tile 8</t>
-  </si>
-  <si>
-    <t>Tile 9</t>
-  </si>
-  <si>
-    <t>Tile 10</t>
-  </si>
-  <si>
-    <t>Tile 11</t>
-  </si>
-  <si>
-    <t>Tile 12</t>
-  </si>
-  <si>
-    <t>Tile 13</t>
-  </si>
-  <si>
-    <t>Tile 14</t>
-  </si>
-  <si>
-    <t>Tile 15</t>
-  </si>
-  <si>
-    <t>Tile 16</t>
-  </si>
-  <si>
-    <t>Tile 17</t>
-  </si>
-  <si>
-    <t>Tile 18</t>
-  </si>
-  <si>
-    <t>Tile 19</t>
-  </si>
-  <si>
     <t>Port 1</t>
   </si>
   <si>
@@ -132,10 +75,67 @@
     <t>sheep</t>
   </si>
   <si>
-    <t>﻿diceSetupHexOffset</t>
-  </si>
-  <si>
-    <t>﻿diceSetupClockwise</t>
+    <t>Row 1 Tile 1</t>
+  </si>
+  <si>
+    <t>Row 1 Tile 2</t>
+  </si>
+  <si>
+    <t>Row 1 Tile 3</t>
+  </si>
+  <si>
+    <t>Row 2 Tile 1</t>
+  </si>
+  <si>
+    <t>Row 2 Tile 2</t>
+  </si>
+  <si>
+    <t>Row 2 Tile 3</t>
+  </si>
+  <si>
+    <t>Row 2 Tile 4</t>
+  </si>
+  <si>
+    <t>Row 3 Tile 1</t>
+  </si>
+  <si>
+    <t>Row 3 Tile 2</t>
+  </si>
+  <si>
+    <t>Row 3 Tile 3</t>
+  </si>
+  <si>
+    <t>Row 3 Tile 4</t>
+  </si>
+  <si>
+    <t>Row 3 Tile 5</t>
+  </si>
+  <si>
+    <t>Row 4 Tile 1</t>
+  </si>
+  <si>
+    <t>Row 4 Tile 2</t>
+  </si>
+  <si>
+    <t>Row 4 Tile 3</t>
+  </si>
+  <si>
+    <t>Row 4 Tile 4</t>
+  </si>
+  <si>
+    <t>Row 5 Tile 1</t>
+  </si>
+  <si>
+    <t>Row 5 Tile 2</t>
+  </si>
+  <si>
+    <t>Row 5 Tile 3</t>
+  </si>
+  <si>
+    <t>"5" Starting Location Offset</t>
+  </si>
+  <si>
+    <t>ClockwiseDiceSetup</t>
   </si>
 </sst>
 </file>
@@ -177,8 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,103 +498,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F4AA2-A4EF-0047-9E07-AE4E15987399}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="30" max="30" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="11" customWidth="1"/>
+    <col min="30" max="30" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="V1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="W1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="X1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Y1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Z1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AA1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AB1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AC1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
       </c>
       <c r="AD1" t="s">
         <v>35</v>
@@ -601,92 +607,92 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="X2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -696,92 +702,92 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="U3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="X3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -791,92 +797,92 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="R4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="S4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="T4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="V4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="W4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -886,92 +892,92 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="U5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="V5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="W5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="X5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -981,92 +987,92 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="U6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="X6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1076,92 +1082,92 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="S7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="U7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="V7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="W7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="X7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AD7">
         <v>2</v>
